--- a/JAWS_KNOWLEDGEBASESPREADSHEET__300_EN-1.xlsx
+++ b/JAWS_KNOWLEDGEBASESPREADSHEET__300_EN-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPinkley\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertoSantos\Desktop\hitgubrepos\gitnbash\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2865C150-B646-4AA3-B8A6-A7B3779DB837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21940" windowHeight="8300"/>
+    <workbookView xWindow="1950" yWindow="1845" windowWidth="21600" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge Base Entries" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Comments</t>
   </si>
@@ -283,12 +284,15 @@
 - Did someone mess with the SSH settings on the instance I am trying to connect to?
 </t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +371,12 @@
       <color theme="1"/>
       <name val="Amazon Ember"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Amazon Ember"/>
     </font>
   </fonts>
   <fills count="6">
@@ -527,9 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,10 +558,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +576,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,720 +921,738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="32.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="49.7265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="61.7265625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="32.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="65.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="65.45" customHeight="1" thickBot="1">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="408.95" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="280" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" ht="279.95" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:9" ht="207" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="207" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:9" ht="207" customHeight="1" thickBot="1">
+      <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-    </row>
-    <row r="67" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-    </row>
-    <row r="92" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-    </row>
-    <row r="93" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-    </row>
-    <row r="94" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-    </row>
-    <row r="95" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="97" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-    </row>
-    <row r="99" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-    </row>
-    <row r="100" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
-    </row>
-    <row r="102" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
-    </row>
-    <row r="103" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-    </row>
-    <row r="104" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="5"/>
-    </row>
-    <row r="105" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
-    </row>
-    <row r="106" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-    </row>
-    <row r="107" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
-    </row>
-    <row r="108" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-    </row>
-    <row r="109" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-    </row>
-    <row r="110" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
-    </row>
-    <row r="111" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-    </row>
-    <row r="112" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-    </row>
-    <row r="113" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5"/>
-    </row>
-    <row r="114" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
-    </row>
-    <row r="115" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-    </row>
-    <row r="119" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-    </row>
-    <row r="120" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="5"/>
-    </row>
-    <row r="124" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="5"/>
-    </row>
-    <row r="126" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="5"/>
-    </row>
-    <row r="127" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="5"/>
-    </row>
-    <row r="128" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
-    </row>
-    <row r="129" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="5"/>
-    </row>
-    <row r="130" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="5"/>
-    </row>
-    <row r="131" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="5"/>
-    </row>
-    <row r="132" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="5"/>
-    </row>
-    <row r="133" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="5"/>
-    </row>
-    <row r="134" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="5"/>
-    </row>
-    <row r="135" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="5"/>
-    </row>
-    <row r="136" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="5"/>
-    </row>
-    <row r="137" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="5"/>
-    </row>
-    <row r="138" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="5"/>
-    </row>
-    <row r="139" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="5"/>
-    </row>
-    <row r="140" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="5"/>
-    </row>
-    <row r="141" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="5"/>
-    </row>
-    <row r="142" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="5"/>
-    </row>
-    <row r="143" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="5"/>
-    </row>
-    <row r="144" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="5"/>
-    </row>
-    <row r="146" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="5"/>
-    </row>
-    <row r="147" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="5"/>
-    </row>
-    <row r="148" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="5"/>
-    </row>
-    <row r="149" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="5"/>
-    </row>
-    <row r="150" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="5"/>
-    </row>
-    <row r="151" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="5"/>
-    </row>
-    <row r="152" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="5"/>
-    </row>
-    <row r="154" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="5"/>
-    </row>
-    <row r="155" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="5"/>
-    </row>
-    <row r="156" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="5"/>
-    </row>
-    <row r="158" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="5"/>
-    </row>
-    <row r="159" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="5"/>
-    </row>
-    <row r="160" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="5"/>
-    </row>
-    <row r="161" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="5"/>
-    </row>
-    <row r="162" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="5"/>
-    </row>
-    <row r="163" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="5"/>
-    </row>
-    <row r="164" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="5"/>
-    </row>
-    <row r="165" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="5"/>
-    </row>
-    <row r="167" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="5"/>
-    </row>
-    <row r="168" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="5"/>
-    </row>
-    <row r="169" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="5"/>
-    </row>
-    <row r="170" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="5"/>
-    </row>
-    <row r="171" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="5"/>
-    </row>
-    <row r="172" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="5"/>
-    </row>
-    <row r="173" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="5"/>
-    </row>
-    <row r="174" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="5"/>
-    </row>
-    <row r="175" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="5"/>
-    </row>
-    <row r="176" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="5"/>
-    </row>
-    <row r="177" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="5"/>
-    </row>
-    <row r="179" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="5"/>
-    </row>
-    <row r="180" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="5"/>
-    </row>
-    <row r="181" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="5"/>
-    </row>
-    <row r="182" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="5"/>
-    </row>
-    <row r="183" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="5"/>
-    </row>
-    <row r="184" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="5"/>
-    </row>
-    <row r="185" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="5"/>
-    </row>
-    <row r="186" spans="1:1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="5"/>
+    <row r="6" spans="1:9" ht="23.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="23.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="23.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="23.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="23.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="23.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="23.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="23.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="23.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="23.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="23.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="23.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="23.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="23.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="23.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="23.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="23.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="23.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="23.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="23.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="23.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="23.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="23.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="23.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="23.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="23.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="23.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="23.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" ht="23.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" ht="23.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" ht="23.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" ht="23.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="23.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="23.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="23.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" ht="23.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" ht="23.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="23.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" ht="23.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" ht="23.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" ht="23.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" ht="23.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" ht="23.25">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" ht="23.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" ht="23.25">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.25">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" ht="23.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" ht="23.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" ht="23.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" ht="23.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" ht="23.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" ht="23.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" ht="23.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" ht="23.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" ht="23.25">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="23.25">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.25">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="23.25">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" ht="23.25">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" ht="23.25">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" ht="23.25">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" ht="23.25">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" ht="23.25">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" ht="23.25">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" ht="23.25">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" ht="23.25">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" ht="23.25">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" ht="23.25">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.25">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" ht="23.25">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" ht="23.25">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" ht="23.25">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" ht="23.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" ht="23.25">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="23.25">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" ht="23.25">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.25">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" ht="23.25">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" ht="23.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" ht="23.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" ht="23.25">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" ht="23.25">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" ht="23.25">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" ht="23.25">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" ht="23.25">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" ht="23.25">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" ht="23.25">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" ht="23.25">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" ht="23.25">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" ht="23.25">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" ht="23.25">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" ht="23.25">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" ht="23.25">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" ht="23.25">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" ht="23.25">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" ht="23.25">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" ht="23.25">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" ht="23.25">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" ht="23.25">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" ht="23.25">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" ht="23.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" ht="23.25">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" ht="23.25">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" ht="23.25">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" ht="23.25">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" ht="23.25">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:1" ht="23.25">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" ht="23.25">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:1" ht="23.25">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:1" ht="23.25">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:1" ht="23.25">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1" ht="23.25">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:1" ht="23.25">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" ht="23.25">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:1" ht="23.25">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" spans="1:1" ht="23.25">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:1" ht="23.25">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:1" ht="23.25">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:1" ht="23.25">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:1" ht="23.25">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:1" ht="23.25">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" spans="1:1" ht="23.25">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:1" ht="23.25">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:1" ht="23.25">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:1" ht="23.25">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" spans="1:1" ht="23.25">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:1" ht="23.25">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1" ht="23.25">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1" ht="23.25">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" ht="23.25">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" ht="23.25">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" ht="23.25">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" ht="23.25">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" ht="23.25">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" ht="23.25">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" ht="23.25">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1" ht="23.25">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1" ht="23.25">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1" ht="23.25">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1" ht="23.25">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1" ht="23.25">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1" ht="23.25">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1" ht="23.25">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1" ht="23.25">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" ht="23.25">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" ht="23.25">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" ht="23.25">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" ht="23.25">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" ht="23.25">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" ht="23.25">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" ht="23.25">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" ht="23.25">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" ht="23.25">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" ht="23.25">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" ht="23.25">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" ht="23.25">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" ht="23.25">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:1" ht="23.25">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" ht="23.25">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" ht="23.25">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:1" ht="23.25">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:1" ht="23.25">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:1" ht="23.25">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:1" ht="23.25">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:1" ht="23.25">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:1" ht="23.25">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184" spans="1:1" ht="23.25">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:1" ht="23.25">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186" spans="1:1" ht="23.25">
+      <c r="A186" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>catagories!$B$3:$B$9</xm:f>
           </x14:formula1>
@@ -1637,56 +1665,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="1"/>
-    <col min="2" max="2" width="41.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/JAWS_KNOWLEDGEBASESPREADSHEET__300_EN-1.xlsx
+++ b/JAWS_KNOWLEDGEBASESPREADSHEET__300_EN-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertoSantos\Desktop\hitgubrepos\gitnbash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2865C150-B646-4AA3-B8A6-A7B3779DB837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89EDEF-1143-446F-8BDB-A83D5B9AE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1845" windowWidth="21600" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge Base Entries" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Comments</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>ERROR Code</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.25"/>
@@ -967,7 +970,9 @@
       <c r="H1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="408.95" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -1061,7 +1066,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>22</v>
